--- a/Code/Results/Cases/Case_1_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.29043874989136</v>
+        <v>7.973936579530329</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.929142561831634</v>
+        <v>10.19202271113368</v>
       </c>
       <c r="E2">
-        <v>10.76736216989137</v>
+        <v>13.99772134997894</v>
       </c>
       <c r="F2">
-        <v>27.24257837156814</v>
+        <v>28.00002925415852</v>
       </c>
       <c r="G2">
-        <v>35.07036351202716</v>
+        <v>27.9926249224201</v>
       </c>
       <c r="H2">
-        <v>9.880956221490765</v>
+        <v>13.21923212800053</v>
       </c>
       <c r="I2">
-        <v>16.37165960169562</v>
+        <v>17.51723746316919</v>
       </c>
       <c r="J2">
-        <v>6.350288244501964</v>
+        <v>9.644818864116688</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.66009174000652</v>
+        <v>17.13588176064243</v>
       </c>
       <c r="O2">
-        <v>18.6504873962885</v>
+        <v>20.1862790208076</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.642069640698997</v>
+        <v>7.726105456002573</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.747537647647387</v>
+        <v>10.1879277601034</v>
       </c>
       <c r="E3">
-        <v>10.35077646196036</v>
+        <v>13.96069026936255</v>
       </c>
       <c r="F3">
-        <v>25.76044373170516</v>
+        <v>27.72584099711391</v>
       </c>
       <c r="G3">
-        <v>32.81140880590392</v>
+        <v>27.34581590149833</v>
       </c>
       <c r="H3">
-        <v>9.523449135411214</v>
+        <v>13.19068893700772</v>
       </c>
       <c r="I3">
-        <v>15.95198825171213</v>
+        <v>17.43545559361282</v>
       </c>
       <c r="J3">
-        <v>6.203910081299268</v>
+        <v>9.646505256136761</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.03548212919463</v>
+        <v>16.94880368210766</v>
       </c>
       <c r="O3">
-        <v>17.68785064219426</v>
+        <v>20.02620259791259</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.219808664142482</v>
+        <v>7.569968192699863</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.637638983567003</v>
+        <v>10.18718855004983</v>
       </c>
       <c r="E4">
-        <v>10.09393799944293</v>
+        <v>13.94095794876877</v>
       </c>
       <c r="F4">
-        <v>24.82588725908339</v>
+        <v>27.56376897813316</v>
       </c>
       <c r="G4">
-        <v>31.36756249288893</v>
+        <v>26.9496947766748</v>
       </c>
       <c r="H4">
-        <v>9.303899349807502</v>
+        <v>13.17586455310832</v>
       </c>
       <c r="I4">
-        <v>15.6940167676315</v>
+        <v>17.38881070702378</v>
       </c>
       <c r="J4">
-        <v>6.116305738786446</v>
+        <v>9.649197674905507</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.64211895543887</v>
+        <v>16.8348163882461</v>
       </c>
       <c r="O4">
-        <v>17.0832796910942</v>
+        <v>19.93251056327971</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.041664563526798</v>
+        <v>7.505429865115993</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.593308729239212</v>
+        <v>10.18733472167911</v>
       </c>
       <c r="E5">
-        <v>9.989154270753332</v>
+        <v>13.93367796296435</v>
       </c>
       <c r="F5">
-        <v>24.43931282760784</v>
+        <v>27.49937375959707</v>
       </c>
       <c r="G5">
-        <v>30.76519909385387</v>
+        <v>26.78879404821963</v>
       </c>
       <c r="H5">
-        <v>9.214538810583186</v>
+        <v>13.17050689977642</v>
       </c>
       <c r="I5">
-        <v>15.5890011824499</v>
+        <v>17.37072111760673</v>
       </c>
       <c r="J5">
-        <v>6.08120620687777</v>
+        <v>9.650711919510597</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.4795824747428</v>
+        <v>16.78863424108822</v>
       </c>
       <c r="O5">
-        <v>16.83381537688479</v>
+        <v>19.89552268896703</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.011717599186582</v>
+        <v>7.494660968687292</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.585976650054729</v>
+        <v>10.18738604175381</v>
       </c>
       <c r="E6">
-        <v>9.971752273544796</v>
+        <v>13.93251524037363</v>
       </c>
       <c r="F6">
-        <v>24.37479038084112</v>
+        <v>27.488782674454</v>
       </c>
       <c r="G6">
-        <v>30.66434366534658</v>
+        <v>26.76211597885145</v>
       </c>
       <c r="H6">
-        <v>9.199710702393469</v>
+        <v>13.16965865087502</v>
       </c>
       <c r="I6">
-        <v>15.57157555785396</v>
+        <v>17.36777342702478</v>
       </c>
       <c r="J6">
-        <v>6.075415018752548</v>
+        <v>9.65098855693036</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.45246571237607</v>
+        <v>16.78098333545059</v>
       </c>
       <c r="O6">
-        <v>16.79221483937539</v>
+        <v>19.8894539280562</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.217430712680025</v>
+        <v>7.569101375577702</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.637039223601779</v>
+        <v>10.18718870862609</v>
       </c>
       <c r="E7">
-        <v>10.09252513338274</v>
+        <v>13.94085668000986</v>
       </c>
       <c r="F7">
-        <v>24.82069636809537</v>
+        <v>27.56289374781946</v>
       </c>
       <c r="G7">
-        <v>31.3594949439498</v>
+        <v>26.94752234594259</v>
       </c>
       <c r="H7">
-        <v>9.302693603102787</v>
+        <v>13.17578952584707</v>
       </c>
       <c r="I7">
-        <v>15.69259979827776</v>
+        <v>17.38856299825989</v>
       </c>
       <c r="J7">
-        <v>6.115829907560282</v>
+        <v>9.649216407453391</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.63993565893843</v>
+        <v>16.8341924095864</v>
       </c>
       <c r="O7">
-        <v>17.07992742946534</v>
+        <v>19.93200685707592</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.07189696902256</v>
+        <v>7.889357710724819</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.866221189033997</v>
+        <v>10.19024303432427</v>
       </c>
       <c r="E8">
-        <v>10.62402434875116</v>
+        <v>13.98433288131076</v>
       </c>
       <c r="F8">
-        <v>26.73685880228107</v>
+        <v>27.90422929772455</v>
       </c>
       <c r="G8">
-        <v>34.30342519974121</v>
+        <v>27.76954980634348</v>
       </c>
       <c r="H8">
-        <v>9.757763095630745</v>
+        <v>13.20883245916042</v>
       </c>
       <c r="I8">
-        <v>16.22712496895313</v>
+        <v>17.48831115075855</v>
       </c>
       <c r="J8">
-        <v>6.299362509181311</v>
+        <v>9.645056714851505</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.44690696866405</v>
+        <v>17.07122325684954</v>
       </c>
       <c r="O8">
-        <v>18.32153675665968</v>
+        <v>20.13015363980903</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.55585895585725</v>
+        <v>8.4824544463425</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.326301265036027</v>
+        <v>10.2102635689738</v>
       </c>
       <c r="E9">
-        <v>11.65237331931918</v>
+        <v>14.09315794686801</v>
       </c>
       <c r="F9">
-        <v>30.28533448555867</v>
+        <v>28.6201392906549</v>
       </c>
       <c r="G9">
-        <v>39.65152590671436</v>
+        <v>29.37840297970911</v>
       </c>
       <c r="H9">
-        <v>10.6452771101781</v>
+        <v>13.29485483016452</v>
       </c>
       <c r="I9">
-        <v>17.26538367260171</v>
+        <v>17.71126666152012</v>
       </c>
       <c r="J9">
-        <v>6.676078659333085</v>
+        <v>9.650023774114835</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.94189970660578</v>
+        <v>17.54092831277462</v>
       </c>
       <c r="O9">
-        <v>20.63875778876984</v>
+        <v>20.55345977065718</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.52970929120774</v>
+        <v>8.892805469389883</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.668235757725419</v>
+        <v>10.23344268846874</v>
       </c>
       <c r="E10">
-        <v>12.39319218433125</v>
+        <v>14.1870649376271</v>
       </c>
       <c r="F10">
-        <v>32.75096282969013</v>
+        <v>29.16991955979584</v>
       </c>
       <c r="G10">
-        <v>43.35411818721919</v>
+        <v>30.54415329235382</v>
       </c>
       <c r="H10">
-        <v>11.28920877561122</v>
+        <v>13.37067982789178</v>
       </c>
       <c r="I10">
-        <v>18.0125993578436</v>
+        <v>17.89037526883937</v>
       </c>
       <c r="J10">
-        <v>6.961589014260484</v>
+        <v>9.661635036204377</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.97606265756467</v>
+        <v>17.88621396499388</v>
       </c>
       <c r="O10">
-        <v>22.25927489619216</v>
+        <v>20.88320280852609</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.94761701402774</v>
+        <v>9.073239364152236</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.824176873576695</v>
+        <v>10.24580427003773</v>
       </c>
       <c r="E11">
-        <v>12.72605658028623</v>
+        <v>14.23271206016586</v>
       </c>
       <c r="F11">
-        <v>33.84037352165998</v>
+        <v>29.42418676710619</v>
       </c>
       <c r="G11">
-        <v>44.97216782544185</v>
+        <v>31.06815545768676</v>
       </c>
       <c r="H11">
-        <v>11.57958559616365</v>
+        <v>13.40783664559342</v>
       </c>
       <c r="I11">
-        <v>18.34734226049186</v>
+        <v>17.97487022382017</v>
       </c>
       <c r="J11">
-        <v>7.093104964142618</v>
+        <v>9.66863450946393</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.43071426220713</v>
+        <v>18.04275315944065</v>
       </c>
       <c r="O11">
-        <v>23.08420859239373</v>
+        <v>21.036730358788</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.10227306321353</v>
+        <v>9.140615808878705</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.883252143055747</v>
+        <v>10.25074430124067</v>
       </c>
       <c r="E12">
-        <v>12.85145187575496</v>
+        <v>14.25040869153869</v>
       </c>
       <c r="F12">
-        <v>34.24821943123362</v>
+        <v>29.52098477406991</v>
       </c>
       <c r="G12">
-        <v>45.57550703438116</v>
+        <v>31.26546135151553</v>
       </c>
       <c r="H12">
-        <v>11.68912969130207</v>
+        <v>13.42228238153746</v>
       </c>
       <c r="I12">
-        <v>18.47322318570794</v>
+        <v>18.0072731922733</v>
       </c>
       <c r="J12">
-        <v>7.143124101906016</v>
+        <v>9.671530688125269</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.60047737535906</v>
+        <v>18.10190618682539</v>
       </c>
       <c r="O12">
-        <v>23.39789613842311</v>
+        <v>21.09532649437566</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.06912484624272</v>
+        <v>9.126148118074333</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.870528631660879</v>
+        <v>10.2496688993483</v>
       </c>
       <c r="E13">
-        <v>12.82447554826532</v>
+        <v>14.24657929015571</v>
       </c>
       <c r="F13">
-        <v>34.16059146935534</v>
+        <v>29.50011618201164</v>
       </c>
       <c r="G13">
-        <v>45.44598149977126</v>
+        <v>31.22302119215394</v>
       </c>
       <c r="H13">
-        <v>11.66555649177792</v>
+        <v>13.4191546736729</v>
       </c>
       <c r="I13">
-        <v>18.44615360195265</v>
+        <v>18.00027699228527</v>
       </c>
       <c r="J13">
-        <v>7.132342182482092</v>
+        <v>9.670896042929174</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.56402467484079</v>
+        <v>18.08917283935257</v>
       </c>
       <c r="O13">
-        <v>23.33056228089171</v>
+        <v>21.08268715005322</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.96041265918633</v>
+        <v>9.078801786399685</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.829036723090231</v>
+        <v>10.24620551355724</v>
       </c>
       <c r="E14">
-        <v>12.73638628952625</v>
+        <v>14.23415979427644</v>
       </c>
       <c r="F14">
-        <v>33.87402139050091</v>
+        <v>29.43214062403234</v>
       </c>
       <c r="G14">
-        <v>45.02199189706986</v>
+        <v>31.08441160933745</v>
       </c>
       <c r="H14">
-        <v>11.58860640194349</v>
+        <v>13.40901763072708</v>
       </c>
       <c r="I14">
-        <v>18.35771691037967</v>
+        <v>17.97752804593542</v>
       </c>
       <c r="J14">
-        <v>7.097215810650953</v>
+        <v>9.668867865316763</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.4447296434782</v>
+        <v>18.04762249193304</v>
       </c>
       <c r="O14">
-        <v>23.11011713033179</v>
+        <v>21.041542187005</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.89335534819892</v>
+        <v>9.049675604494444</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.803623947890645</v>
+        <v>10.24411774134096</v>
       </c>
       <c r="E15">
-        <v>12.68234257678707</v>
+        <v>14.22660571722196</v>
       </c>
       <c r="F15">
-        <v>33.69787733352865</v>
+        <v>29.3905677953432</v>
       </c>
       <c r="G15">
-        <v>44.76106954905099</v>
+        <v>30.99935692190976</v>
       </c>
       <c r="H15">
-        <v>11.54141698474386</v>
+        <v>13.40285702873039</v>
       </c>
       <c r="I15">
-        <v>18.30342859422968</v>
+        <v>17.9636457851309</v>
       </c>
       <c r="J15">
-        <v>7.075727673001365</v>
+        <v>9.667657493565205</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.37134134399815</v>
+        <v>18.02215401479316</v>
       </c>
       <c r="O15">
-        <v>22.97442915169785</v>
+        <v>21.01639798227277</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.5018940031287</v>
+        <v>8.880883512103345</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.658049621209879</v>
+        <v>10.23267120236419</v>
       </c>
       <c r="E16">
-        <v>12.37135007334841</v>
+        <v>14.18413987375155</v>
       </c>
       <c r="F16">
-        <v>32.67911284823858</v>
+        <v>29.15337906325784</v>
       </c>
       <c r="G16">
-        <v>43.2470528980537</v>
+        <v>30.50976287739119</v>
       </c>
       <c r="H16">
-        <v>11.2701761467811</v>
+        <v>13.36830448962632</v>
       </c>
       <c r="I16">
-        <v>17.99060724195165</v>
+        <v>17.8849117193195</v>
       </c>
       <c r="J16">
-        <v>6.953025388091326</v>
+        <v>9.66121205336599</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.94602056483715</v>
+        <v>17.87596887941633</v>
       </c>
       <c r="O16">
-        <v>22.21195203974025</v>
+        <v>20.87323624657447</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.25532470262211</v>
+        <v>8.775697920560138</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.568820126177539</v>
+        <v>10.22611296865207</v>
       </c>
       <c r="E17">
-        <v>12.1794594680501</v>
+        <v>14.15883154443324</v>
       </c>
       <c r="F17">
-        <v>32.04582423653041</v>
+        <v>29.00887749313428</v>
       </c>
       <c r="G17">
-        <v>42.30136915081184</v>
+        <v>30.20763995635961</v>
       </c>
       <c r="H17">
-        <v>11.10308604386205</v>
+        <v>13.34778449085651</v>
       </c>
       <c r="I17">
-        <v>17.79727727844842</v>
+        <v>17.83736449732357</v>
       </c>
       <c r="J17">
-        <v>6.878156084297926</v>
+        <v>9.657696969332493</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.68095489707133</v>
+        <v>17.78611779883915</v>
       </c>
       <c r="O17">
-        <v>21.79509297475172</v>
+        <v>20.78627997687077</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.11114096131532</v>
+        <v>8.714613687309544</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.517536334960413</v>
+        <v>10.22251205291303</v>
       </c>
       <c r="E18">
-        <v>12.06870196166398</v>
+        <v>14.14455113750956</v>
       </c>
       <c r="F18">
-        <v>31.67854091553777</v>
+        <v>28.92616169188517</v>
       </c>
       <c r="G18">
-        <v>41.75118650442432</v>
+        <v>30.03328550724615</v>
       </c>
       <c r="H18">
-        <v>11.00674208214253</v>
+        <v>13.33623314540072</v>
       </c>
       <c r="I18">
-        <v>17.68559980266637</v>
+        <v>17.81030229408057</v>
       </c>
       <c r="J18">
-        <v>6.835248061867961</v>
+        <v>9.655836931840597</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.52701623627309</v>
+        <v>17.73439049486323</v>
       </c>
       <c r="O18">
-        <v>21.55353961578016</v>
+        <v>20.73659984591649</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.06191650564072</v>
+        <v>8.693832984641839</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.500180255097801</v>
+        <v>10.22132231765953</v>
       </c>
       <c r="E19">
-        <v>12.03113694804148</v>
+        <v>14.13976378266686</v>
       </c>
       <c r="F19">
-        <v>31.55366691015655</v>
+        <v>28.89822649347396</v>
       </c>
       <c r="G19">
-        <v>41.56382679877206</v>
+        <v>29.97415906526007</v>
       </c>
       <c r="H19">
-        <v>10.97408249340913</v>
+        <v>13.33236543278866</v>
       </c>
       <c r="I19">
-        <v>17.64770975113496</v>
+        <v>17.80118939117582</v>
       </c>
       <c r="J19">
-        <v>6.820747362980827</v>
+        <v>9.65523497299491</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.47464540079025</v>
+        <v>17.71686987832944</v>
       </c>
       <c r="O19">
-        <v>21.47144909934848</v>
+        <v>20.71983797588696</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.28181696041142</v>
+        <v>8.786955979033163</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.578315013399421</v>
+        <v>10.22679340089651</v>
       </c>
       <c r="E20">
-        <v>12.19992709184483</v>
+        <v>14.16149713654979</v>
       </c>
       <c r="F20">
-        <v>32.11355332700065</v>
+        <v>29.02421940351396</v>
       </c>
       <c r="G20">
-        <v>42.4026847500951</v>
+        <v>30.23986323467787</v>
       </c>
       <c r="H20">
-        <v>11.12089811782896</v>
+        <v>13.34994293450565</v>
       </c>
       <c r="I20">
-        <v>17.81790819761056</v>
+        <v>17.84239660775757</v>
       </c>
       <c r="J20">
-        <v>6.88611017295081</v>
+        <v>9.658054425068778</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.70932576861093</v>
+        <v>17.79568785272507</v>
       </c>
       <c r="O20">
-        <v>21.83965378849384</v>
+        <v>20.79550231663107</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.99244155991444</v>
+        <v>9.092734726993214</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.841223490870671</v>
+        <v>10.24721578547873</v>
       </c>
       <c r="E21">
-        <v>12.76227834561425</v>
+        <v>14.23779662850099</v>
       </c>
       <c r="F21">
-        <v>33.95832145649113</v>
+        <v>29.45209347683156</v>
       </c>
       <c r="G21">
-        <v>45.1467811024341</v>
+        <v>31.12515671041965</v>
       </c>
       <c r="H21">
-        <v>11.61122009110747</v>
+        <v>13.41198500623132</v>
       </c>
       <c r="I21">
-        <v>18.38371778730687</v>
+        <v>17.98419914949335</v>
       </c>
       <c r="J21">
-        <v>7.10752751462765</v>
+        <v>9.669456935443925</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.47983568721165</v>
+        <v>18.05983060728495</v>
       </c>
       <c r="O21">
-        <v>23.17500433431803</v>
+        <v>21.05361540318226</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.43591967862772</v>
+        <v>9.287021218569377</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.013176768260132</v>
+        <v>10.26207120930414</v>
       </c>
       <c r="E22">
-        <v>13.12598524774175</v>
+        <v>14.29005360826733</v>
       </c>
       <c r="F22">
-        <v>35.13687527096465</v>
+        <v>29.7346810838264</v>
       </c>
       <c r="G22">
-        <v>46.88562788043161</v>
+        <v>31.69711573386239</v>
       </c>
       <c r="H22">
-        <v>11.92924141047656</v>
+        <v>13.45471638674811</v>
       </c>
       <c r="I22">
-        <v>18.74832924437954</v>
+        <v>18.07923203987224</v>
       </c>
       <c r="J22">
-        <v>7.25349565129613</v>
+        <v>9.678340111133934</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.96934909802547</v>
+        <v>18.23171317604654</v>
       </c>
       <c r="O22">
-        <v>24.07869950038393</v>
+        <v>21.22495736481477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.20113979645821</v>
+        <v>9.18385141077105</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.921399747296516</v>
+        <v>10.25400542471188</v>
       </c>
       <c r="E23">
-        <v>12.93223246155926</v>
+        <v>14.26194779235945</v>
       </c>
       <c r="F23">
-        <v>34.51026252081175</v>
+        <v>29.58361782623343</v>
       </c>
       <c r="G23">
-        <v>45.96250545120223</v>
+        <v>31.39252465664353</v>
       </c>
       <c r="H23">
-        <v>11.7597420995912</v>
+        <v>13.43171277717938</v>
       </c>
       <c r="I23">
-        <v>18.55424479086269</v>
+        <v>18.02830472147761</v>
       </c>
       <c r="J23">
-        <v>7.17547935853632</v>
+        <v>9.67346854575416</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.70941231798716</v>
+        <v>18.14006050299149</v>
       </c>
       <c r="O23">
-        <v>23.59904883524155</v>
+        <v>21.13328259258936</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.26984737358422</v>
+        <v>8.781868111808491</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.574022324250206</v>
+        <v>10.22648524933156</v>
       </c>
       <c r="E24">
-        <v>12.19067503578664</v>
+        <v>14.16029118155904</v>
       </c>
       <c r="F24">
-        <v>32.082942958965</v>
+        <v>29.01728219750546</v>
       </c>
       <c r="G24">
-        <v>42.35690021348303</v>
+        <v>30.22529712948333</v>
       </c>
       <c r="H24">
-        <v>11.11284615255835</v>
+        <v>13.34896633560851</v>
       </c>
       <c r="I24">
-        <v>17.80858259792763</v>
+        <v>17.84012073718841</v>
       </c>
       <c r="J24">
-        <v>6.882513706472721</v>
+        <v>9.65789231825727</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.69650411176675</v>
+        <v>17.79136144795663</v>
       </c>
       <c r="O24">
-        <v>21.8195137443137</v>
+        <v>20.79133192062987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17489577285955</v>
+        <v>8.3261960847399</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.20097699155605</v>
+        <v>10.2033530996724</v>
       </c>
       <c r="E25">
-        <v>11.37637603864036</v>
+        <v>14.0612345977308</v>
       </c>
       <c r="F25">
-        <v>29.34947784744206</v>
+        <v>28.42194760795594</v>
       </c>
       <c r="G25">
-        <v>38.22958794722869</v>
+        <v>28.94502986164271</v>
       </c>
       <c r="H25">
-        <v>10.40628723743083</v>
+        <v>13.26934136391781</v>
       </c>
       <c r="I25">
-        <v>16.98659684967527</v>
+        <v>17.64816122966613</v>
       </c>
       <c r="J25">
-        <v>6.572530982669179</v>
+        <v>9.647278360295342</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.54803743298106</v>
+        <v>17.41362653806358</v>
       </c>
       <c r="O25">
-        <v>20.02571677134748</v>
+        <v>20.435470315409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.973936579530329</v>
+        <v>10.29043874989134</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.19202271113368</v>
+        <v>6.929142561831707</v>
       </c>
       <c r="E2">
-        <v>13.99772134997894</v>
+        <v>10.76736216989136</v>
       </c>
       <c r="F2">
-        <v>28.00002925415852</v>
+        <v>27.24257837156815</v>
       </c>
       <c r="G2">
-        <v>27.9926249224201</v>
+        <v>35.07036351202718</v>
       </c>
       <c r="H2">
-        <v>13.21923212800053</v>
+        <v>9.880956221490765</v>
       </c>
       <c r="I2">
-        <v>17.51723746316919</v>
+        <v>16.37165960169562</v>
       </c>
       <c r="J2">
-        <v>9.644818864116688</v>
+        <v>6.350288244501952</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.13588176064243</v>
+        <v>17.66009174000652</v>
       </c>
       <c r="O2">
-        <v>20.1862790208076</v>
+        <v>18.65048739628849</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.726105456002573</v>
+        <v>9.642069640699011</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.1879277601034</v>
+        <v>6.747537647647387</v>
       </c>
       <c r="E3">
-        <v>13.96069026936255</v>
+        <v>10.35077646196032</v>
       </c>
       <c r="F3">
-        <v>27.72584099711391</v>
+        <v>25.76044373170517</v>
       </c>
       <c r="G3">
-        <v>27.34581590149833</v>
+        <v>32.81140880590394</v>
       </c>
       <c r="H3">
-        <v>13.19068893700772</v>
+        <v>9.523449135411214</v>
       </c>
       <c r="I3">
-        <v>17.43545559361282</v>
+        <v>15.95198825171206</v>
       </c>
       <c r="J3">
-        <v>9.646505256136761</v>
+        <v>6.203910081299261</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.94880368210766</v>
+        <v>17.03548212919459</v>
       </c>
       <c r="O3">
-        <v>20.02620259791259</v>
+        <v>17.68785064219426</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.569968192699863</v>
+        <v>9.219808664142498</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.18718855004983</v>
+        <v>6.63763898356701</v>
       </c>
       <c r="E4">
-        <v>13.94095794876877</v>
+        <v>10.09393799944287</v>
       </c>
       <c r="F4">
-        <v>27.56376897813316</v>
+        <v>24.82588725908334</v>
       </c>
       <c r="G4">
-        <v>26.9496947766748</v>
+        <v>31.36756249288888</v>
       </c>
       <c r="H4">
-        <v>13.17586455310832</v>
+        <v>9.303899349807466</v>
       </c>
       <c r="I4">
-        <v>17.38881070702378</v>
+        <v>15.69401676763148</v>
       </c>
       <c r="J4">
-        <v>9.649197674905507</v>
+        <v>6.116305738786383</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.8348163882461</v>
+        <v>16.64211895543886</v>
       </c>
       <c r="O4">
-        <v>19.93251056327971</v>
+        <v>17.08327969109414</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.505429865115993</v>
+        <v>9.041664563526798</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.18733472167911</v>
+        <v>6.593308729239218</v>
       </c>
       <c r="E5">
-        <v>13.93367796296435</v>
+        <v>9.989154270753392</v>
       </c>
       <c r="F5">
-        <v>27.49937375959707</v>
+        <v>24.43931282760784</v>
       </c>
       <c r="G5">
-        <v>26.78879404821963</v>
+        <v>30.76519909385388</v>
       </c>
       <c r="H5">
-        <v>13.17050689977642</v>
+        <v>9.21453881058318</v>
       </c>
       <c r="I5">
-        <v>17.37072111760673</v>
+        <v>15.58900118244992</v>
       </c>
       <c r="J5">
-        <v>9.650711919510597</v>
+        <v>6.081206206877833</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.78863424108822</v>
+        <v>16.47958247474283</v>
       </c>
       <c r="O5">
-        <v>19.89552268896703</v>
+        <v>16.83381537688477</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.494660968687292</v>
+        <v>9.011717599186598</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.18738604175381</v>
+        <v>6.585976650054779</v>
       </c>
       <c r="E6">
-        <v>13.93251524037363</v>
+        <v>9.971752273544794</v>
       </c>
       <c r="F6">
-        <v>27.488782674454</v>
+        <v>24.37479038084115</v>
       </c>
       <c r="G6">
-        <v>26.76211597885145</v>
+        <v>30.66434366534659</v>
       </c>
       <c r="H6">
-        <v>13.16965865087502</v>
+        <v>9.199710702393475</v>
       </c>
       <c r="I6">
-        <v>17.36777342702478</v>
+        <v>15.57157555785395</v>
       </c>
       <c r="J6">
-        <v>9.65098855693036</v>
+        <v>6.07541501875254</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.78098333545059</v>
+        <v>16.45246571237606</v>
       </c>
       <c r="O6">
-        <v>19.8894539280562</v>
+        <v>16.79221483937539</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.569101375577702</v>
+        <v>9.217430712679993</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.18718870862609</v>
+        <v>6.637039223601729</v>
       </c>
       <c r="E7">
-        <v>13.94085668000986</v>
+        <v>10.09252513338273</v>
       </c>
       <c r="F7">
-        <v>27.56289374781946</v>
+        <v>24.82069636809536</v>
       </c>
       <c r="G7">
-        <v>26.94752234594259</v>
+        <v>31.35949494394978</v>
       </c>
       <c r="H7">
-        <v>13.17578952584707</v>
+        <v>9.302693603102799</v>
       </c>
       <c r="I7">
-        <v>17.38856299825989</v>
+        <v>15.69259979827783</v>
       </c>
       <c r="J7">
-        <v>9.649216407453391</v>
+        <v>6.115829907560324</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.8341924095864</v>
+        <v>16.63993565893848</v>
       </c>
       <c r="O7">
-        <v>19.93200685707592</v>
+        <v>17.07992742946534</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.889357710724819</v>
+        <v>10.07189696902261</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.19024303432427</v>
+        <v>6.866221189033929</v>
       </c>
       <c r="E8">
-        <v>13.98433288131076</v>
+        <v>10.62402434875117</v>
       </c>
       <c r="F8">
-        <v>27.90422929772455</v>
+        <v>26.73685880228104</v>
       </c>
       <c r="G8">
-        <v>27.76954980634348</v>
+        <v>34.3034251997412</v>
       </c>
       <c r="H8">
-        <v>13.20883245916042</v>
+        <v>9.757763095630722</v>
       </c>
       <c r="I8">
-        <v>17.48831115075855</v>
+        <v>16.22712496895311</v>
       </c>
       <c r="J8">
-        <v>9.645056714851505</v>
+        <v>6.29936250918136</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.07122325684954</v>
+        <v>17.44690696866405</v>
       </c>
       <c r="O8">
-        <v>20.13015363980903</v>
+        <v>18.32153675665967</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.4824544463425</v>
+        <v>11.55585895585729</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.2102635689738</v>
+        <v>7.326301265035992</v>
       </c>
       <c r="E9">
-        <v>14.09315794686801</v>
+        <v>11.65237331931919</v>
       </c>
       <c r="F9">
-        <v>28.6201392906549</v>
+        <v>30.28533448555866</v>
       </c>
       <c r="G9">
-        <v>29.37840297970911</v>
+        <v>39.65152590671428</v>
       </c>
       <c r="H9">
-        <v>13.29485483016452</v>
+        <v>10.64527711017812</v>
       </c>
       <c r="I9">
-        <v>17.71126666152012</v>
+        <v>17.2653836726017</v>
       </c>
       <c r="J9">
-        <v>9.650023774114835</v>
+        <v>6.67607865933308</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.54092831277462</v>
+        <v>18.9418997066058</v>
       </c>
       <c r="O9">
-        <v>20.55345977065718</v>
+        <v>20.63875778876984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.892805469389883</v>
+        <v>12.52970929120776</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.23344268846874</v>
+        <v>7.668235757725411</v>
       </c>
       <c r="E10">
-        <v>14.1870649376271</v>
+        <v>12.39319218433124</v>
       </c>
       <c r="F10">
-        <v>29.16991955979584</v>
+        <v>32.75096282969013</v>
       </c>
       <c r="G10">
-        <v>30.54415329235382</v>
+        <v>43.35411818721921</v>
       </c>
       <c r="H10">
-        <v>13.37067982789178</v>
+        <v>11.28920877561118</v>
       </c>
       <c r="I10">
-        <v>17.89037526883937</v>
+        <v>18.01259935784356</v>
       </c>
       <c r="J10">
-        <v>9.661635036204377</v>
+        <v>6.961589014260469</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.88621396499388</v>
+        <v>19.97606265756465</v>
       </c>
       <c r="O10">
-        <v>20.88320280852609</v>
+        <v>22.25927489619215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.073239364152236</v>
+        <v>12.94761701402772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.24580427003773</v>
+        <v>7.824176873576659</v>
       </c>
       <c r="E11">
-        <v>14.23271206016586</v>
+        <v>12.7260565802862</v>
       </c>
       <c r="F11">
-        <v>29.42418676710619</v>
+        <v>33.84037352165998</v>
       </c>
       <c r="G11">
-        <v>31.06815545768676</v>
+        <v>44.97216782544191</v>
       </c>
       <c r="H11">
-        <v>13.40783664559342</v>
+        <v>11.57958559616365</v>
       </c>
       <c r="I11">
-        <v>17.97487022382017</v>
+        <v>18.34734226049184</v>
       </c>
       <c r="J11">
-        <v>9.66863450946393</v>
+        <v>7.093104964142621</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.04275315944065</v>
+        <v>20.43071426220712</v>
       </c>
       <c r="O11">
-        <v>21.036730358788</v>
+        <v>23.08420859239376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.140615808878705</v>
+        <v>13.1022730632135</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.25074430124067</v>
+        <v>7.883252143055712</v>
       </c>
       <c r="E12">
-        <v>14.25040869153869</v>
+        <v>12.85145187575497</v>
       </c>
       <c r="F12">
-        <v>29.52098477406991</v>
+        <v>34.24821943123364</v>
       </c>
       <c r="G12">
-        <v>31.26546135151553</v>
+        <v>45.5755070343812</v>
       </c>
       <c r="H12">
-        <v>13.42228238153746</v>
+        <v>11.68912969130206</v>
       </c>
       <c r="I12">
-        <v>18.0072731922733</v>
+        <v>18.47322318570792</v>
       </c>
       <c r="J12">
-        <v>9.671530688125269</v>
+        <v>7.143124101906018</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.10190618682539</v>
+        <v>20.60047737535903</v>
       </c>
       <c r="O12">
-        <v>21.09532649437566</v>
+        <v>23.39789613842312</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.126148118074333</v>
+        <v>13.06912484624272</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.2496688993483</v>
+        <v>7.870528631660852</v>
       </c>
       <c r="E13">
-        <v>14.24657929015571</v>
+        <v>12.82447554826529</v>
       </c>
       <c r="F13">
-        <v>29.50011618201164</v>
+        <v>34.16059146935534</v>
       </c>
       <c r="G13">
-        <v>31.22302119215394</v>
+        <v>45.44598149977126</v>
       </c>
       <c r="H13">
-        <v>13.4191546736729</v>
+        <v>11.66555649177795</v>
       </c>
       <c r="I13">
-        <v>18.00027699228527</v>
+        <v>18.44615360195265</v>
       </c>
       <c r="J13">
-        <v>9.670896042929174</v>
+        <v>7.13234218248206</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.08917283935257</v>
+        <v>20.56402467484079</v>
       </c>
       <c r="O13">
-        <v>21.08268715005322</v>
+        <v>23.33056228089168</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.078801786399685</v>
+        <v>12.96041265918626</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.24620551355724</v>
+        <v>7.829036723090279</v>
       </c>
       <c r="E14">
-        <v>14.23415979427644</v>
+        <v>12.73638628952624</v>
       </c>
       <c r="F14">
-        <v>29.43214062403234</v>
+        <v>33.87402139050091</v>
       </c>
       <c r="G14">
-        <v>31.08441160933745</v>
+        <v>45.02199189706984</v>
       </c>
       <c r="H14">
-        <v>13.40901763072708</v>
+        <v>11.58860640194349</v>
       </c>
       <c r="I14">
-        <v>17.97752804593542</v>
+        <v>18.35771691037969</v>
       </c>
       <c r="J14">
-        <v>9.668867865316763</v>
+        <v>7.097215810650949</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.04762249193304</v>
+        <v>20.4447296434782</v>
       </c>
       <c r="O14">
-        <v>21.041542187005</v>
+        <v>23.1101171303318</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.049675604494444</v>
+        <v>12.89335534819893</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.24411774134096</v>
+        <v>7.803623947890643</v>
       </c>
       <c r="E15">
-        <v>14.22660571722196</v>
+        <v>12.68234257678708</v>
       </c>
       <c r="F15">
-        <v>29.3905677953432</v>
+        <v>33.69787733352865</v>
       </c>
       <c r="G15">
-        <v>30.99935692190976</v>
+        <v>44.76106954905102</v>
       </c>
       <c r="H15">
-        <v>13.40285702873039</v>
+        <v>11.54141698474384</v>
       </c>
       <c r="I15">
-        <v>17.9636457851309</v>
+        <v>18.30342859422971</v>
       </c>
       <c r="J15">
-        <v>9.667657493565205</v>
+        <v>7.075727673001373</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.02215401479316</v>
+        <v>20.37134134399817</v>
       </c>
       <c r="O15">
-        <v>21.01639798227277</v>
+        <v>22.97442915169787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.880883512103345</v>
+        <v>12.50189400312873</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.23267120236419</v>
+        <v>7.658049621209797</v>
       </c>
       <c r="E16">
-        <v>14.18413987375155</v>
+        <v>12.37135007334847</v>
       </c>
       <c r="F16">
-        <v>29.15337906325784</v>
+        <v>32.67911284823854</v>
       </c>
       <c r="G16">
-        <v>30.50976287739119</v>
+        <v>43.24705289805362</v>
       </c>
       <c r="H16">
-        <v>13.36830448962632</v>
+        <v>11.27017614678107</v>
       </c>
       <c r="I16">
-        <v>17.8849117193195</v>
+        <v>17.99060724195158</v>
       </c>
       <c r="J16">
-        <v>9.66121205336599</v>
+        <v>6.953025388091367</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.87596887941633</v>
+        <v>19.94602056483712</v>
       </c>
       <c r="O16">
-        <v>20.87323624657447</v>
+        <v>22.21195203974023</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.775697920560138</v>
+        <v>12.25532470262208</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.22611296865207</v>
+        <v>7.568820126177522</v>
       </c>
       <c r="E17">
-        <v>14.15883154443324</v>
+        <v>12.17945946805011</v>
       </c>
       <c r="F17">
-        <v>29.00887749313428</v>
+        <v>32.04582423653046</v>
       </c>
       <c r="G17">
-        <v>30.20763995635961</v>
+        <v>42.30136915081192</v>
       </c>
       <c r="H17">
-        <v>13.34778449085651</v>
+        <v>11.10308604386207</v>
       </c>
       <c r="I17">
-        <v>17.83736449732357</v>
+        <v>17.79727727844842</v>
       </c>
       <c r="J17">
-        <v>9.657696969332493</v>
+        <v>6.8781560842979</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.78611779883915</v>
+        <v>19.68095489707131</v>
       </c>
       <c r="O17">
-        <v>20.78627997687077</v>
+        <v>21.79509297475175</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.714613687309544</v>
+        <v>12.11114096131537</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.22251205291303</v>
+        <v>7.517536334960395</v>
       </c>
       <c r="E18">
-        <v>14.14455113750956</v>
+        <v>12.06870196166401</v>
       </c>
       <c r="F18">
-        <v>28.92616169188517</v>
+        <v>31.67854091553776</v>
       </c>
       <c r="G18">
-        <v>30.03328550724615</v>
+        <v>41.75118650442424</v>
       </c>
       <c r="H18">
-        <v>13.33623314540072</v>
+        <v>11.00674208214253</v>
       </c>
       <c r="I18">
-        <v>17.81030229408057</v>
+        <v>17.68559980266637</v>
       </c>
       <c r="J18">
-        <v>9.655836931840597</v>
+        <v>6.835248061867973</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.73439049486323</v>
+        <v>19.52701623627311</v>
       </c>
       <c r="O18">
-        <v>20.73659984591649</v>
+        <v>21.55353961578016</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.693832984641839</v>
+        <v>12.06191650564072</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.22132231765953</v>
+        <v>7.50018025509769</v>
       </c>
       <c r="E19">
-        <v>14.13976378266686</v>
+        <v>12.03113694804147</v>
       </c>
       <c r="F19">
-        <v>28.89822649347396</v>
+        <v>31.55366691015653</v>
       </c>
       <c r="G19">
-        <v>29.97415906526007</v>
+        <v>41.56382679877209</v>
       </c>
       <c r="H19">
-        <v>13.33236543278866</v>
+        <v>10.9740824934091</v>
       </c>
       <c r="I19">
-        <v>17.80118939117582</v>
+        <v>17.64770975113492</v>
       </c>
       <c r="J19">
-        <v>9.65523497299491</v>
+        <v>6.820747362980866</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.71686987832944</v>
+        <v>19.47464540079023</v>
       </c>
       <c r="O19">
-        <v>20.71983797588696</v>
+        <v>21.47144909934847</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.786955979033163</v>
+        <v>12.28181696041141</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.22679340089651</v>
+        <v>7.578315013399413</v>
       </c>
       <c r="E20">
-        <v>14.16149713654979</v>
+        <v>12.19992709184485</v>
       </c>
       <c r="F20">
-        <v>29.02421940351396</v>
+        <v>32.11355332700064</v>
       </c>
       <c r="G20">
-        <v>30.23986323467787</v>
+        <v>42.40268475009512</v>
       </c>
       <c r="H20">
-        <v>13.34994293450565</v>
+        <v>11.12089811782895</v>
       </c>
       <c r="I20">
-        <v>17.84239660775757</v>
+        <v>17.81790819761056</v>
       </c>
       <c r="J20">
-        <v>9.658054425068778</v>
+        <v>6.886110172950845</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.79568785272507</v>
+        <v>19.70932576861092</v>
       </c>
       <c r="O20">
-        <v>20.79550231663107</v>
+        <v>21.83965378849384</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.092734726993214</v>
+        <v>12.99244155991448</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.24721578547873</v>
+        <v>7.841223490870733</v>
       </c>
       <c r="E21">
-        <v>14.23779662850099</v>
+        <v>12.76227834561428</v>
       </c>
       <c r="F21">
-        <v>29.45209347683156</v>
+        <v>33.95832145649113</v>
       </c>
       <c r="G21">
-        <v>31.12515671041965</v>
+        <v>45.14678110243407</v>
       </c>
       <c r="H21">
-        <v>13.41198500623132</v>
+        <v>11.61122009110748</v>
       </c>
       <c r="I21">
-        <v>17.98419914949335</v>
+        <v>18.38371778730691</v>
       </c>
       <c r="J21">
-        <v>9.669456935443925</v>
+        <v>7.107527514627655</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.05983060728495</v>
+        <v>20.4798356872117</v>
       </c>
       <c r="O21">
-        <v>21.05361540318226</v>
+        <v>23.17500433431802</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.287021218569377</v>
+        <v>13.43591967862774</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.26207120930414</v>
+        <v>8.013176768260077</v>
       </c>
       <c r="E22">
-        <v>14.29005360826733</v>
+        <v>13.12598524774172</v>
       </c>
       <c r="F22">
-        <v>29.7346810838264</v>
+        <v>35.13687527096462</v>
       </c>
       <c r="G22">
-        <v>31.69711573386239</v>
+        <v>46.88562788043163</v>
       </c>
       <c r="H22">
-        <v>13.45471638674811</v>
+        <v>11.92924141047655</v>
       </c>
       <c r="I22">
-        <v>18.07923203987224</v>
+        <v>18.74832924437956</v>
       </c>
       <c r="J22">
-        <v>9.678340111133934</v>
+        <v>7.253495651296138</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.23171317604654</v>
+        <v>20.96934909802548</v>
       </c>
       <c r="O22">
-        <v>21.22495736481477</v>
+        <v>24.07869950038392</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.18385141077105</v>
+        <v>13.20113979645826</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.25400542471188</v>
+        <v>7.921399747296546</v>
       </c>
       <c r="E23">
-        <v>14.26194779235945</v>
+        <v>12.93223246155928</v>
       </c>
       <c r="F23">
-        <v>29.58361782623343</v>
+        <v>34.5102625208118</v>
       </c>
       <c r="G23">
-        <v>31.39252465664353</v>
+        <v>45.96250545120231</v>
       </c>
       <c r="H23">
-        <v>13.43171277717938</v>
+        <v>11.75974209959122</v>
       </c>
       <c r="I23">
-        <v>18.02830472147761</v>
+        <v>18.55424479086266</v>
       </c>
       <c r="J23">
-        <v>9.67346854575416</v>
+        <v>7.175479358536359</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.14006050299149</v>
+        <v>20.70941231798716</v>
       </c>
       <c r="O23">
-        <v>21.13328259258936</v>
+        <v>23.59904883524159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.781868111808491</v>
+        <v>12.26984737358419</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.22648524933156</v>
+        <v>7.574022324250221</v>
       </c>
       <c r="E24">
-        <v>14.16029118155904</v>
+        <v>12.19067503578663</v>
       </c>
       <c r="F24">
-        <v>29.01728219750546</v>
+        <v>32.08294295896502</v>
       </c>
       <c r="G24">
-        <v>30.22529712948333</v>
+        <v>42.35690021348311</v>
       </c>
       <c r="H24">
-        <v>13.34896633560851</v>
+        <v>11.11284615255833</v>
       </c>
       <c r="I24">
-        <v>17.84012073718841</v>
+        <v>17.80858259792757</v>
       </c>
       <c r="J24">
-        <v>9.65789231825727</v>
+        <v>6.882513706472721</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.79136144795663</v>
+        <v>19.69650411176671</v>
       </c>
       <c r="O24">
-        <v>20.79133192062987</v>
+        <v>21.81951374431372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.3261960847399</v>
+        <v>11.17489577285952</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.2033530996724</v>
+        <v>7.200976991556038</v>
       </c>
       <c r="E25">
-        <v>14.0612345977308</v>
+        <v>11.37637603864035</v>
       </c>
       <c r="F25">
-        <v>28.42194760795594</v>
+        <v>29.34947784744206</v>
       </c>
       <c r="G25">
-        <v>28.94502986164271</v>
+        <v>38.22958794722871</v>
       </c>
       <c r="H25">
-        <v>13.26934136391781</v>
+        <v>10.40628723743079</v>
       </c>
       <c r="I25">
-        <v>17.64816122966613</v>
+        <v>16.98659684967529</v>
       </c>
       <c r="J25">
-        <v>9.647278360295342</v>
+        <v>6.572530982669194</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.41362653806358</v>
+        <v>18.54803743298108</v>
       </c>
       <c r="O25">
-        <v>20.435470315409</v>
+        <v>20.02571677134746</v>
       </c>
     </row>
   </sheetData>
